--- a/output/length-of-audio.xlsx
+++ b/output/length-of-audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F364C-FB30-E345-9198-4669CFF962B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9BBA65-6995-EC46-B77E-F50D61F7011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33940" yWindow="2000" windowWidth="27540" windowHeight="17380" activeTab="5" xr2:uid="{27399666-65A3-034B-9EBD-609F5DD373BC}"/>
   </bookViews>
@@ -5708,7 +5708,13 @@
       <sheetName val="Plot"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>25.411764099999999</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2">
@@ -6211,7 +6217,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>train_acc</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
     </sheetDataSet>
@@ -7835,10 +7847,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16787,7 +16799,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
